--- a/android/app/src/main/assets/模板.xlsx
+++ b/android/app/src/main/assets/模板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youju\Desktop\StudyMaterials\question\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youju\Desktop\using\myReactApp\android\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC1CD9C-1432-4BB8-8AFB-D7A3D48FB383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DE475-F680-4910-BDE7-57FFED4F4479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单选题" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="139">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <t>否</t>
   </si>
   <si>
-    <t>岳阳楼位于我国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>湖南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下面哪些是江南三大名楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岳阳楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,20 +102,374 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄鹤楼位于_省_区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武昌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西安鼓楼是中国十大名楼之一</t>
+    <t>岳阳楼位于我国1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玛卡巴卡？</t>
+    <t>岳阳楼位于我国2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳阳楼位于我国3</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国4</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国5</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国6</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国7</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国8</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国9</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国10</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国11</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国12</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国13</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国14</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国15</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国16</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国17</t>
+  </si>
+  <si>
+    <t>岳阳楼位于我国18</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼2</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼3</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼4</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼5</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼6</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼7</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼8</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼9</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼10</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼11</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼12</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼13</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼14</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼15</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼16</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼17</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼18</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼19</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼20</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼21</t>
+  </si>
+  <si>
+    <t>下面哪些是江南三大名楼22</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区2</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区3</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区4</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区5</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区6</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区7</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区8</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区9</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区10</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区11</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区12</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区13</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区14</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区15</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区16</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区17</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区18</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区19</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区20</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区21</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区22</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区23</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区24</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区25</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区26</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区27</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区28</t>
+  </si>
+  <si>
+    <t>黄鹤楼位于_省_区29</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一2</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一3</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一4</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一5</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一6</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一7</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一8</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一9</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一10</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一11</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一12</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一13</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一14</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一15</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一16</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一17</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一18</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一19</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一20</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一21</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一22</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一23</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一24</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一25</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一26</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一27</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一28</t>
+  </si>
+  <si>
+    <t>西安鼓楼是中国十大名楼之一29</t>
+  </si>
+  <si>
+    <t>玛卡巴卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛卡巴卡2</t>
+  </si>
+  <si>
+    <t>玛卡巴卡3</t>
+  </si>
+  <si>
+    <t>玛卡巴卡4</t>
+  </si>
+  <si>
+    <t>玛卡巴卡5</t>
+  </si>
+  <si>
+    <t>玛卡巴卡6</t>
+  </si>
+  <si>
+    <t>玛卡巴卡7</t>
+  </si>
+  <si>
+    <t>玛卡巴卡8</t>
+  </si>
+  <si>
+    <t>玛卡巴卡9</t>
+  </si>
+  <si>
+    <t>玛卡巴卡10</t>
+  </si>
+  <si>
+    <t>玛卡巴卡11</t>
+  </si>
+  <si>
+    <t>玛卡巴卡12</t>
+  </si>
+  <si>
+    <t>玛卡巴卡13</t>
+  </si>
+  <si>
+    <t>玛卡巴卡14</t>
+  </si>
+  <si>
+    <t>玛卡巴卡15</t>
+  </si>
+  <si>
+    <t>玛卡巴卡16</t>
+  </si>
+  <si>
+    <t>玛卡巴卡17</t>
+  </si>
+  <si>
+    <t>玛卡巴卡18</t>
+  </si>
+  <si>
+    <t>玛卡巴卡19</t>
+  </si>
+  <si>
+    <t>玛卡巴卡20</t>
+  </si>
+  <si>
+    <t>玛卡巴卡21</t>
+  </si>
+  <si>
+    <t>玛卡巴卡22</t>
   </si>
 </sst>
 </file>
@@ -448,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -481,21 +827,361 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -513,13 +1199,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CDCCC1-28FB-4694-8AFF-F33577CB2F60}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -543,22 +1232,442 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -570,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E7278F-8FCF-463B-82A7-0212BFFE5B66}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="A2:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -591,13 +1700,321 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FD06D7-7BD1-4897-88EC-8F657F82D0C7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="A2:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -626,9 +2043,233 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -645,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D168DC2-F855-442F-8C6B-9819AE02C164}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -660,7 +2301,112 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
